--- a/inst/extdata/Correlation.xlsx
+++ b/inst/extdata/Correlation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinos\Desktop\PSYCH\Pareto\AssessmentGen\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinos\Desktop\PSYCH\Pareto\AssessmentGen\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA5AF1-1A47-4B9D-A0C9-58C5FAA31E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2173BF-2C86-44D0-8EBF-AA75E9E51349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AE274FA-CBCE-45D3-A76F-7049D8FCC35A}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -576,10 +576,10 @@
         <v>0.25</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0.51</v>
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0.34</v>
@@ -681,19 +681,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0.43</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0.14000000000000001</v>
@@ -719,16 +719,16 @@
         <v>0.13</v>
       </c>
       <c r="B7" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0.22</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>

--- a/inst/extdata/Correlation.xlsx
+++ b/inst/extdata/Correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinos\Desktop\PSYCH\Pareto\AssessmentGen\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2173BF-2C86-44D0-8EBF-AA75E9E51349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8530606E-D47D-1E42-937D-B614ACE76936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AE274FA-CBCE-45D3-A76F-7049D8FCC35A}"/>
+    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="19420" xr2:uid="{1AE274FA-CBCE-45D3-A76F-7049D8FCC35A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Structured Interview</t>
   </si>
@@ -464,519 +464,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DC342F-040A-49A9-B430-1BEEC6238421}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="19.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" style="1"/>
-    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.6640625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>0.16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.31</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-0.02</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.13</v>
       </c>
       <c r="G2" s="1">
         <v>0.13</v>
       </c>
       <c r="H2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.47</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.51</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.16</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.33</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.37</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.51</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.18</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.24</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.48</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.46</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.31</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.37</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.02</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.43</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.22</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.03</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.08</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>-0.01</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>-0.02</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.02</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.34</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>-0.27</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.24</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>-0.04</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>-0.27</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.43</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.26</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.18</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.36</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.22</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="J7" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.43</v>
       </c>
       <c r="I8" s="1">
         <v>0.43</v>
       </c>
       <c r="J8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.47</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>0.18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.08</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>-0.27</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.26</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.22</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.43</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.36</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.17</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.36</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>0.24</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.12</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.17</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.43</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.36</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.21</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.19</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>0.48</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.17</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>-0.04</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.18</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.08</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.17</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.21</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.43</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.33</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>0.46</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>-0.01</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>-0.27</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.36</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.04</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.36</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.19</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.43</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>0.42</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>0.38</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.31</v>
       </c>
       <c r="D13" s="1">
         <v>0.31</v>
       </c>
       <c r="E13" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.26</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.21</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.09</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.06</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.11</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -986,6 +1024,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce9f5645-935f-4a30-bc98-ddd9ceca3de9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5EC7109E7C56D48941C703E3EC53CB5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9126b82754938e69d44663fa82a00384">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="90953dd9-3c4c-46ef-91c0-a437802f9113" xmlns:ns4="ce9f5645-935f-4a30-bc98-ddd9ceca3de9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f96e36a8bf2e4e13790359cefc3f12db" ns3:_="" ns4:_="">
     <xsd:import namespace="90953dd9-3c4c-46ef-91c0-a437802f9113"/>
@@ -1220,24 +1275,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BAF34AD-25A3-40FE-A15A-62901701AA51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ce9f5645-935f-4a30-bc98-ddd9ceca3de9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90953dd9-3c4c-46ef-91c0-a437802f9113"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce9f5645-935f-4a30-bc98-ddd9ceca3de9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EBFC0B-6F8D-4FDA-BC21-795FDB69CF7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19870279-2B7D-4854-B224-F179B399FED6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1254,29 +1317,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EBFC0B-6F8D-4FDA-BC21-795FDB69CF7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BAF34AD-25A3-40FE-A15A-62901701AA51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ce9f5645-935f-4a30-bc98-ddd9ceca3de9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90953dd9-3c4c-46ef-91c0-a437802f9113"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>